--- a/Tags Benchmark.xlsx
+++ b/Tags Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuwij/Google Drive/Documents/2018 May/Research/apriltags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA458130-44E9-0F49-BAB8-616C09DDB31F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792DAA3B-8904-3B4E-BD5B-DCF80D0A0AA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{55BA06E9-4BCD-EC4C-8C47-96B4B11DF33D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>AprilTag Detection Benchmark</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Odroid - Original</t>
   </si>
   <si>
-    <t>Ratio/Meet</t>
-  </si>
-  <si>
     <t>PC - Ratio</t>
   </si>
   <si>
@@ -147,12 +144,39 @@
   </si>
   <si>
     <t>PC - 0.5 size, 20 iteration, 31x31 Pyramids</t>
+  </si>
+  <si>
+    <t>Speed Ratio</t>
+  </si>
+  <si>
+    <t>PC - One Tag only, pyramids</t>
+  </si>
+  <si>
+    <t>PC - One Tag only, no pyramids</t>
+  </si>
+  <si>
+    <t>Reducing the number of tags being detected does not decrease</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>PC one tag only</t>
+  </si>
+  <si>
+    <t>Maximum Rate (Hz)</t>
+  </si>
+  <si>
+    <t>Odroid Lower Resolution (320x240)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -208,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,6 +261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359A3141-EB89-9C40-B54B-8B9D4A05B2DC}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,6 +598,7 @@
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -612,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -656,9 +683,9 @@
         <f>K2*60/1000</f>
         <v>323.96616660000001</v>
       </c>
-      <c r="M2" s="7">
-        <f>L2/1000</f>
-        <v>0.32396616659999999</v>
+      <c r="M2" s="19">
+        <f>1000000/K2</f>
+        <v>185.20452499622226</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -700,9 +727,9 @@
         <f t="shared" ref="L3:L9" si="1">K3*60/1000</f>
         <v>389.70496860000003</v>
       </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3:M9" si="2">L3/1000</f>
-        <v>0.38970496860000003</v>
+      <c r="M3" s="19">
+        <f t="shared" ref="M3:M9" si="2">1000000/K3</f>
+        <v>153.96262515088702</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -744,9 +771,9 @@
         <f t="shared" si="1"/>
         <v>352.84584000000001</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="19">
         <f t="shared" si="2"/>
-        <v>0.35284584000000002</v>
+        <v>170.04593280736992</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -788,9 +815,9 @@
         <f t="shared" si="1"/>
         <v>348.97065600000002</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="19">
         <f t="shared" si="2"/>
-        <v>0.34897065600000005</v>
+        <v>171.93422704286058</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -832,9 +859,9 @@
         <f t="shared" si="1"/>
         <v>324.15330000000006</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="19">
         <f t="shared" si="2"/>
-        <v>0.32415330000000003</v>
+        <v>185.09760659539791</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -876,9 +903,9 @@
         <f t="shared" si="1"/>
         <v>323.79908399999999</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="19">
         <f t="shared" si="2"/>
-        <v>0.32379908400000001</v>
+        <v>185.30009183101953</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -920,9 +947,9 @@
         <f t="shared" si="1"/>
         <v>2607.4339799999998</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="19">
         <f t="shared" si="2"/>
-        <v>2.6074339799999997</v>
+        <v>23.011129125501387</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -964,9 +991,9 @@
         <f t="shared" si="1"/>
         <v>2612.9471999999996</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="19">
         <f t="shared" si="2"/>
-        <v>2.6129471999999998</v>
+        <v>22.962576511304938</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1094,6 +1121,94 @@
         <v>9.5307494612001647E-3</v>
       </c>
     </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3">
+        <v>60.9</v>
+      </c>
+      <c r="C17">
+        <v>18.13</v>
+      </c>
+      <c r="D17">
+        <v>60.9</v>
+      </c>
+      <c r="E17">
+        <v>60.9</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3720</v>
+      </c>
+      <c r="G17" s="18">
+        <v>11.52</v>
+      </c>
+      <c r="H17" s="18">
+        <v>284.57</v>
+      </c>
+      <c r="I17" s="18">
+        <v>643.26199999999994</v>
+      </c>
+      <c r="J17" s="18">
+        <v>36.5</v>
+      </c>
+      <c r="K17">
+        <f>SUM(F17:J17)</f>
+        <v>4695.8519999999999</v>
+      </c>
+      <c r="L17">
+        <f>K17*6</f>
+        <v>28175.112000000001</v>
+      </c>
+      <c r="M17">
+        <f>1000000/K17</f>
+        <v>212.95390059141559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60.7</v>
+      </c>
+      <c r="C18">
+        <v>20.7</v>
+      </c>
+      <c r="D18">
+        <v>60.781999999999996</v>
+      </c>
+      <c r="E18">
+        <v>60.781999999999996</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8482.4500000000007</v>
+      </c>
+      <c r="G18" s="18">
+        <v>23</v>
+      </c>
+      <c r="H18" s="18">
+        <v>544.17700000000002</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2382.9699999999998</v>
+      </c>
+      <c r="J18" s="18">
+        <v>46.92</v>
+      </c>
+      <c r="K18">
+        <f>SUM(F18:J18)</f>
+        <v>11479.517</v>
+      </c>
+      <c r="L18">
+        <f>K18*60</f>
+        <v>688771.02</v>
+      </c>
+      <c r="M18">
+        <f>1000000/K18</f>
+        <v>87.111679001825607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1101,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4B9894-56F9-FD4D-A976-B137098D4DD8}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,9 +1227,10 @@
     <col min="1" max="1" width="38.5" style="13" customWidth="1"/>
     <col min="2" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
@@ -1131,10 +1247,13 @@
         <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1274,7 @@
         <v>5101.7129999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
@@ -1176,12 +1295,12 @@
         <v>33559.049999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="12">
         <f>B2/$F$2</f>
@@ -1200,9 +1319,9 @@
         <v>1.6504260431741261E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="12">
         <f>B3/$F$3</f>
@@ -1221,9 +1340,9 @@
         <v>2.9172458695940441E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="12">
         <f>B3/B2</f>
@@ -1242,12 +1361,12 @@
         <v>1.16270783847981</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="16">
         <v>512.49</v>
@@ -1262,13 +1381,17 @@
         <v>3.1415975</v>
       </c>
       <c r="F9">
-        <f>SUM(B9:E9)</f>
+        <f t="shared" ref="F9:F14" si="3">SUM(B9:E9)</f>
         <v>9023.8255974999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="7">
+        <f>F9/$F$2</f>
+        <v>1.7687834649851921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>995</v>
@@ -1283,13 +1406,17 @@
         <v>2.855</v>
       </c>
       <c r="F10">
-        <f>SUM(B10:E10)</f>
+        <f t="shared" si="3"/>
         <v>4427.0249999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="7">
+        <f t="shared" ref="G10:G14" si="4">F10/$F$2</f>
+        <v>0.867752654843579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>1047.58</v>
@@ -1304,13 +1431,17 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="F11">
-        <f>SUM(B11:E11)</f>
+        <f t="shared" si="3"/>
         <v>4331.6660000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="7">
+        <f t="shared" si="4"/>
+        <v>0.84906108987314666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>4404.79</v>
@@ -1325,13 +1456,17 @@
         <v>2.37</v>
       </c>
       <c r="F12">
-        <f>SUM(B12:E12)</f>
+        <f t="shared" si="3"/>
         <v>6423.125</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2590133941285997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>2500</v>
@@ -1346,13 +1481,17 @@
         <v>3.71</v>
       </c>
       <c r="F13">
-        <f>SUM(B13:E13)</f>
+        <f t="shared" si="3"/>
         <v>5389.78</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0564647599737578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>5290</v>
@@ -1367,8 +1506,62 @@
         <v>5.25</v>
       </c>
       <c r="F14">
-        <f>SUM(B14:E14)</f>
+        <f t="shared" si="3"/>
         <v>9189.25</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="4"/>
+        <v>1.8012087312634013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>4469</v>
+      </c>
+      <c r="C16">
+        <v>554</v>
+      </c>
+      <c r="D16">
+        <v>1452</v>
+      </c>
+      <c r="E16">
+        <v>2.57</v>
+      </c>
+      <c r="F16">
+        <f>SUM(B16:E16)</f>
+        <v>6477.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>1313.5</v>
+      </c>
+      <c r="C17">
+        <v>555.59</v>
+      </c>
+      <c r="D17">
+        <v>3456.48</v>
+      </c>
+      <c r="E17">
+        <v>2.093</v>
+      </c>
+      <c r="F17">
+        <f>SUM(B17:E17)</f>
+        <v>5327.6629999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
